--- a/input/iv/해운X.xlsx
+++ b/input/iv/해운X.xlsx
@@ -927,7 +927,7 @@
   <dimension ref="A2:BL151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+      <selection activeCell="D147" sqref="D147:D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -28899,9 +28899,7 @@
       <c r="C147" s="9">
         <v>85.74</v>
       </c>
-      <c r="D147" s="9">
-        <v>69.599999999999994</v>
-      </c>
+      <c r="D147" s="9"/>
       <c r="E147" s="9">
         <v>109.63</v>
       </c>
@@ -29090,12 +29088,8 @@
       <c r="B148" s="9">
         <v>109.92</v>
       </c>
-      <c r="C148" s="9">
-        <v>85.29</v>
-      </c>
-      <c r="D148" s="9">
-        <v>68.5</v>
-      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
       <c r="E148" s="14">
         <v>109.63</v>
       </c>
@@ -29284,12 +29278,8 @@
       <c r="B149" s="9">
         <v>110.21</v>
       </c>
-      <c r="C149" s="9">
-        <v>84.16</v>
-      </c>
-      <c r="D149" s="14">
-        <v>67.53</v>
-      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="14"/>
       <c r="E149" s="9">
         <v>109.63</v>
       </c>
@@ -29476,12 +29466,8 @@
         <v>20160101</v>
       </c>
       <c r="B150" s="9"/>
-      <c r="C150" s="14">
-        <v>83.78</v>
-      </c>
-      <c r="D150" s="9">
-        <v>64.989999999999995</v>
-      </c>
+      <c r="C150" s="14"/>
+      <c r="D150" s="9"/>
       <c r="E150" s="9">
         <v>109.63</v>
       </c>
@@ -29668,12 +29654,8 @@
         <v>20160201</v>
       </c>
       <c r="B151" s="14"/>
-      <c r="C151" s="9">
-        <v>84.17</v>
-      </c>
-      <c r="D151" s="9">
-        <v>64.59</v>
-      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
       <c r="E151" s="9">
         <v>109.63</v>
       </c>
